--- a/OneOnOnes.xlsx
+++ b/OneOnOnes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Documents\Scheduler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\Meeting-Scheduler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA39FA05-A9C1-42DC-9F67-C1B74F0CC796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4216B-DCDB-4F7C-8C96-8D3B3E459A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
   <si>
     <t>Metin Karayilan</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Ethan@Electroninks.com</t>
   </si>
   <si>
-    <t>Data Scientist at Illumination Works</t>
-  </si>
-  <si>
     <t>david.alman@netl.doe.gov</t>
   </si>
   <si>
@@ -290,70 +287,67 @@
     <t>Statistics, Pitt</t>
   </si>
   <si>
-    <t>Vincenzo Liberatore, CWRU*; Oliver Hinder, Pitt*</t>
-  </si>
-  <si>
-    <t>Roger French, CWRU*; Chris Wirth, CWRU*; Judy Zhang, CWRU*; Wesley Wang, DEVCOM Armaments Center*; Lenny Lucas, Naval Nuclear Laboratory</t>
-  </si>
-  <si>
-    <t>Metin Karayilan, CWRU*; Paul Leu, Pitt*; Matthew Irvin, Maplewell Energy</t>
-  </si>
-  <si>
-    <t>LLNL; Hunaid Nulwala, LumiShield Technologies</t>
-  </si>
-  <si>
     <t>Matthew Irvin</t>
   </si>
   <si>
-    <t>Raashed Ahmed, Ansys</t>
-  </si>
-  <si>
-    <t>Anthony van Buuren, Lawrence Livermore National Laboratory*; Michael McCourt, SigOpt, an Intel company</t>
-  </si>
-  <si>
-    <t>Laura Bruckman, CWRU; Paul Leu, Pitt; Anthony van Buuren, Lawrence Livermore National Laboratory; Lenny Lucas, Naval Nuclear Laboratory; GE Digital; NETL</t>
-  </si>
-  <si>
     <t>Maplewell Energy</t>
   </si>
   <si>
-    <t>Matthew Irvin, Maplewell Energy; James Warren, NIST*</t>
-  </si>
-  <si>
     <t>NIST; Illumination Works</t>
   </si>
   <si>
-    <t>Vincenzo Liberatore, CWRU*; Oliver Hinder, Pitt*; Jungtaek Kim</t>
-  </si>
-  <si>
-    <t>Matthew Irvin, Maplewell Energy; Satish Iyengar</t>
-  </si>
-  <si>
-    <t>Roger French, CWRU*; Chris Wirth, CWRU*; James Warren, NIST*; Michael McCourt</t>
-  </si>
-  <si>
-    <t>Raashed Ahmed and Guoyu Lin, Ansys; Fujifilm; Xiayun Zhao</t>
-  </si>
-  <si>
     <t>Fujifilm</t>
   </si>
   <si>
-    <t>NIST; Perceptive Sensor Technologies Inc; LumiShield</t>
-  </si>
-  <si>
-    <t>Laura Bruckman; Chris Wirth, CWRU*; Paul Leu, Pitt*; Wesley Wang, DEVCOM Armaments Center*</t>
-  </si>
-  <si>
-    <t>Michael McCourt, SigOpt, an Intel company; Oliver Hinder</t>
-  </si>
-  <si>
-    <t>LLNL; Estat; ElectronInks</t>
-  </si>
-  <si>
-    <t>Oliver Hinder, Pitt; Satish Iyengar; Roger French, CWRU; Laura Bruckman, CWRU; Paul Leu, Pitt</t>
-  </si>
-  <si>
-    <t>Metin Karayilan, CWRU*; ElectronInks</t>
+    <t>LLNL; ESTAT Actuation; ElectronInks</t>
+  </si>
+  <si>
+    <t>Laura Bruckman; Paul Leu; Anthony van Buuren; Lenny Lucas; GE Digital; NETL</t>
+  </si>
+  <si>
+    <t>Matthew Irvin; Satish Iyengar</t>
+  </si>
+  <si>
+    <t>LLNL; Hunaid Nulwala</t>
+  </si>
+  <si>
+    <t>Anthony van Buuren; Michael McCourt</t>
+  </si>
+  <si>
+    <t>Michael McCourt; Oliver Hinder</t>
+  </si>
+  <si>
+    <t>Raashed Ahmed; Fujifilm; Xiayun Zhao</t>
+  </si>
+  <si>
+    <t>Matthew Irvin; James Warren</t>
+  </si>
+  <si>
+    <t>Vincenzo Liberatore; Oliver Hinder</t>
+  </si>
+  <si>
+    <t>Roger French; Chris Wirth; Judy Zhang; Wesley Wang; Lenny Lucas</t>
+  </si>
+  <si>
+    <t>Laura Bruckman; Chris Wirth; Paul Leu; Wesley Wang</t>
+  </si>
+  <si>
+    <t>Roger French; Chris Wirth; James Warren; Michael McCourt</t>
+  </si>
+  <si>
+    <t>Metin Karayilan; Paul Leu; Matthew Irvin</t>
+  </si>
+  <si>
+    <t>NIST; Perceptive Sensor Technologies Inc; LumiShield Technologies</t>
+  </si>
+  <si>
+    <t>Vincenzo Liberatore; Oliver Hinder; Jungtaek Kim</t>
+  </si>
+  <si>
+    <t>Metin Karayilan; ElectronInks</t>
+  </si>
+  <si>
+    <t>Oliver Hinder; Satish Iyengar; Roger French; Laura Bruckman; Paul Leu</t>
   </si>
 </sst>
 </file>
@@ -868,9 +862,9 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -924,7 +918,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -943,7 +937,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -961,8 +955,8 @@
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>95</v>
+      <c r="E4" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -978,8 +972,8 @@
       <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>93</v>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>61</v>
@@ -997,7 +991,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>63</v>
@@ -1012,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>64</v>
@@ -1050,7 +1044,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>68</v>
@@ -1065,10 +1059,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>69</v>
@@ -1086,7 +1080,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>71</v>
@@ -1104,7 +1098,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>73</v>
@@ -1119,10 +1113,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>74</v>
@@ -1140,7 +1134,7 @@
         <v>76</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>77</v>
@@ -1157,10 +1151,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>88</v>
+        <v>41</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>75</v>
@@ -1177,11 +1171,11 @@
       <c r="D16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>89</v>
+      <c r="E16" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1195,13 +1189,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1213,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,13 +1225,13 @@
         <v>31</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1245,7 +1239,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1253,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>104</v>
@@ -1267,21 +1261,21 @@
         <v>34</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/OneOnOnes.xlsx
+++ b/OneOnOnes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\Meeting-Scheduler-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB4216B-DCDB-4F7C-8C96-8D3B3E459A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E93573-3685-4EF7-A24E-61DB32251BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,171 +183,171 @@
 * indicates Center member</t>
   </si>
   <si>
-    <t xml:space="preserve">Is there anyone else you would like to meet with? (Feel free to indicate other people not present as we can try to invite them; we can also make introductions if they cannot attend)
+    <t>What is your email?</t>
+  </si>
+  <si>
+    <t>Who would you like to meet with? Please select your SECOND choice.</t>
+  </si>
+  <si>
+    <t>Who would you like to meet with? Please select your THIRD choice.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Chemistry, CWRU</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>jungtaek.kim@pitt.edu</t>
+  </si>
+  <si>
+    <t>Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>vl@case.edu</t>
+  </si>
+  <si>
+    <t>pleu@pitt.edu</t>
+  </si>
+  <si>
+    <t>DEVCOM Armaments Center</t>
+  </si>
+  <si>
+    <t>wesley.t.wang.civ@army.mil</t>
+  </si>
+  <si>
+    <t>ESTAT Actuation</t>
+  </si>
+  <si>
+    <t>john@estat.tech</t>
+  </si>
+  <si>
+    <t>Xiayun.zhao@pitt.edu</t>
+  </si>
+  <si>
+    <t>Ansys</t>
+  </si>
+  <si>
+    <t>raasheduddin.ahmed@ansys.com</t>
+  </si>
+  <si>
+    <t>SigOpt, an Intel company</t>
+  </si>
+  <si>
+    <t>mccourt@sigopt.com</t>
+  </si>
+  <si>
+    <t>ohinder@pitt.edu</t>
+  </si>
+  <si>
+    <t>john.tribble@ilwllc.com</t>
+  </si>
+  <si>
+    <t>ElectronInks</t>
+  </si>
+  <si>
+    <t>Ethan@Electroninks.com</t>
+  </si>
+  <si>
+    <t>david.alman@netl.doe.gov</t>
+  </si>
+  <si>
+    <t>LumiShield Technologies</t>
+  </si>
+  <si>
+    <t>nulwala@lumishieldtech.com</t>
+  </si>
+  <si>
+    <t>yohei.takahashi@fujifilm.com</t>
+  </si>
+  <si>
+    <t>LLNL</t>
+  </si>
+  <si>
+    <t>vanbuuren1@llnl.gov</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Materials Science, CWRU</t>
+  </si>
+  <si>
+    <t>Statistics, Pitt</t>
+  </si>
+  <si>
+    <t>Matthew Irvin</t>
+  </si>
+  <si>
+    <t>Maplewell Energy</t>
+  </si>
+  <si>
+    <t>NIST; Illumination Works</t>
+  </si>
+  <si>
+    <t>Fujifilm</t>
+  </si>
+  <si>
+    <t>LLNL; ESTAT Actuation; ElectronInks</t>
+  </si>
+  <si>
+    <t>Laura Bruckman; Paul Leu; Anthony van Buuren; Lenny Lucas; GE Digital; NETL</t>
+  </si>
+  <si>
+    <t>Matthew Irvin; Satish Iyengar</t>
+  </si>
+  <si>
+    <t>LLNL; Hunaid Nulwala</t>
+  </si>
+  <si>
+    <t>Anthony van Buuren; Michael McCourt</t>
+  </si>
+  <si>
+    <t>Michael McCourt; Oliver Hinder</t>
+  </si>
+  <si>
+    <t>Raashed Ahmed; Fujifilm; Xiayun Zhao</t>
+  </si>
+  <si>
+    <t>Matthew Irvin; James Warren</t>
+  </si>
+  <si>
+    <t>Vincenzo Liberatore; Oliver Hinder</t>
+  </si>
+  <si>
+    <t>Roger French; Chris Wirth; Judy Zhang; Wesley Wang; Lenny Lucas</t>
+  </si>
+  <si>
+    <t>Laura Bruckman; Chris Wirth; Paul Leu; Wesley Wang</t>
+  </si>
+  <si>
+    <t>Roger French; Chris Wirth; James Warren; Michael McCourt</t>
+  </si>
+  <si>
+    <t>Metin Karayilan; Paul Leu; Matthew Irvin</t>
+  </si>
+  <si>
+    <t>Vincenzo Liberatore; Oliver Hinder; Jungtaek Kim</t>
+  </si>
+  <si>
+    <t>Metin Karayilan; ElectronInks</t>
+  </si>
+  <si>
+    <t>Oliver Hinder; Satish Iyengar; Roger French; Laura Bruckman; Paul Leu</t>
+  </si>
+  <si>
+    <t>Is there anyone else you would like to meet with? (Feel free to indicate other people not present as we can try to invite them; we can also make introductions if they cannot attend)
 Pitt/Case possibilities: http://shorturl.at/ems78
-Industry/Government Lab possibilities: http://shorturl.at/iUZ18 </t>
-  </si>
-  <si>
-    <t>What is your email?</t>
-  </si>
-  <si>
-    <t>Who would you like to meet with? Please select your SECOND choice.</t>
-  </si>
-  <si>
-    <t>Who would you like to meet with? Please select your THIRD choice.</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Chemistry, CWRU</t>
-  </si>
-  <si>
-    <t>Perceptive Sensor Technologies, Inc.,</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>jungtaek.kim@pitt.edu</t>
-  </si>
-  <si>
-    <t>Case Western Reserve University</t>
-  </si>
-  <si>
-    <t>vl@case.edu</t>
-  </si>
-  <si>
-    <t>pleu@pitt.edu</t>
-  </si>
-  <si>
-    <t>DEVCOM Armaments Center</t>
-  </si>
-  <si>
-    <t>wesley.t.wang.civ@army.mil</t>
-  </si>
-  <si>
-    <t>ESTAT Actuation</t>
-  </si>
-  <si>
-    <t>john@estat.tech</t>
-  </si>
-  <si>
-    <t>Xiayun.zhao@pitt.edu</t>
-  </si>
-  <si>
-    <t>Ansys</t>
-  </si>
-  <si>
-    <t>raasheduddin.ahmed@ansys.com</t>
-  </si>
-  <si>
-    <t>SigOpt, an Intel company</t>
-  </si>
-  <si>
-    <t>mccourt@sigopt.com</t>
-  </si>
-  <si>
-    <t>ohinder@pitt.edu</t>
-  </si>
-  <si>
-    <t>john.tribble@ilwllc.com</t>
-  </si>
-  <si>
-    <t>ElectronInks</t>
-  </si>
-  <si>
-    <t>Ethan@Electroninks.com</t>
-  </si>
-  <si>
-    <t>david.alman@netl.doe.gov</t>
-  </si>
-  <si>
-    <t>LumiShield Technologies</t>
-  </si>
-  <si>
-    <t>nulwala@lumishieldtech.com</t>
-  </si>
-  <si>
-    <t>yohei.takahashi@fujifilm.com</t>
-  </si>
-  <si>
-    <t>LLNL</t>
-  </si>
-  <si>
-    <t>vanbuuren1@llnl.gov</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>Materials Science, CWRU</t>
-  </si>
-  <si>
-    <t>Statistics, Pitt</t>
-  </si>
-  <si>
-    <t>Matthew Irvin</t>
-  </si>
-  <si>
-    <t>Maplewell Energy</t>
-  </si>
-  <si>
-    <t>NIST; Illumination Works</t>
-  </si>
-  <si>
-    <t>Fujifilm</t>
-  </si>
-  <si>
-    <t>LLNL; ESTAT Actuation; ElectronInks</t>
-  </si>
-  <si>
-    <t>Laura Bruckman; Paul Leu; Anthony van Buuren; Lenny Lucas; GE Digital; NETL</t>
-  </si>
-  <si>
-    <t>Matthew Irvin; Satish Iyengar</t>
-  </si>
-  <si>
-    <t>LLNL; Hunaid Nulwala</t>
-  </si>
-  <si>
-    <t>Anthony van Buuren; Michael McCourt</t>
-  </si>
-  <si>
-    <t>Michael McCourt; Oliver Hinder</t>
-  </si>
-  <si>
-    <t>Raashed Ahmed; Fujifilm; Xiayun Zhao</t>
-  </si>
-  <si>
-    <t>Matthew Irvin; James Warren</t>
-  </si>
-  <si>
-    <t>Vincenzo Liberatore; Oliver Hinder</t>
-  </si>
-  <si>
-    <t>Roger French; Chris Wirth; Judy Zhang; Wesley Wang; Lenny Lucas</t>
-  </si>
-  <si>
-    <t>Laura Bruckman; Chris Wirth; Paul Leu; Wesley Wang</t>
-  </si>
-  <si>
-    <t>Roger French; Chris Wirth; James Warren; Michael McCourt</t>
-  </si>
-  <si>
-    <t>Metin Karayilan; Paul Leu; Matthew Irvin</t>
-  </si>
-  <si>
-    <t>NIST; Perceptive Sensor Technologies Inc; LumiShield Technologies</t>
-  </si>
-  <si>
-    <t>Vincenzo Liberatore; Oliver Hinder; Jungtaek Kim</t>
-  </si>
-  <si>
-    <t>Metin Karayilan; ElectronInks</t>
-  </si>
-  <si>
-    <t>Oliver Hinder; Satish Iyengar; Roger French; Laura Bruckman; Paul Leu</t>
+Industry/Government Lab possibilities: http://shorturl.at/iUZ18</t>
+  </si>
+  <si>
+    <t>Perceptive Sensor Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>NIST; Perceptive Sensor Technologies, Inc.; LumiShield Technologies</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -642,6 +642,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,9 +865,9 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -888,25 +891,25 @@
       <c r="D1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="27">
         <v>44763.662196006946</v>
@@ -915,17 +918,17 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="27">
         <v>44763.73312344907</v>
@@ -937,14 +940,14 @@
         <v>37</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="27">
         <v>44763.929355914355</v>
@@ -953,10 +956,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -970,13 +973,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -988,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,18 +1009,18 @@
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="27">
         <v>44767.345748449079</v>
@@ -1026,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1041,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1077,13 +1080,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1095,13 +1098,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1113,13 +1116,13 @@
         <v>25</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1131,18 +1134,18 @@
         <v>27</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="27">
         <v>44768.247972592595</v>
@@ -1154,10 +1157,10 @@
         <v>41</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1172,15 +1175,15 @@
         <v>24</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="27">
         <v>44768.463762824074</v>
@@ -1189,13 +1192,13 @@
         <v>29</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1207,13 +1210,13 @@
         <v>30</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1225,13 +1228,13 @@
         <v>31</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1239,7 +1242,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1247,35 +1250,35 @@
         <v>33</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
